--- a/Config/Master_Test_Template.xlsx
+++ b/Config/Master_Test_Template.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harish/PycharmProjects/Data_validation_tool/Config/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harish/PycharmProjects/Data_Automation_project/Config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{521158F0-597C-DE40-929F-7718ECB4B153}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{210812B7-7D88-3C4D-B1AC-69B203CEEBBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -480,8 +480,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="R12" sqref="R12"/>
+    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -882,7 +882,7 @@
         <v>28</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="16" x14ac:dyDescent="0.2">

--- a/Config/Master_Test_Template.xlsx
+++ b/Config/Master_Test_Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harish/PycharmProjects/Data_Automation_project/Config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{210812B7-7D88-3C4D-B1AC-69B203CEEBBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54E7EDF4-0446-FA46-88A7-E33D2E305D3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="36">
   <si>
     <t>count_validation</t>
   </si>
@@ -112,19 +112,22 @@
     <t>schema_path</t>
   </si>
   <si>
-    <t>contact_info.sql</t>
-  </si>
-  <si>
     <t>Contact_info.csv</t>
   </si>
   <si>
-    <t>oracle_db</t>
-  </si>
-  <si>
     <t>Contact_info_t.csv</t>
   </si>
   <si>
-    <t>N</t>
+    <t>postgre_db</t>
+  </si>
+  <si>
+    <t>contact_info_schema.json</t>
+  </si>
+  <si>
+    <t>contact_info_t.sql</t>
+  </si>
+  <si>
+    <t>contact_info_s.sql</t>
   </si>
 </sst>
 </file>
@@ -480,8 +483,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -554,7 +557,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -562,18 +565,22 @@
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="3" t="s">
-        <v>33</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>7</v>
@@ -595,7 +602,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -603,18 +610,22 @@
         <v>1</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="3" t="s">
-        <v>33</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>7</v>
@@ -636,7 +647,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -644,18 +655,22 @@
         <v>2</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H4" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="3" t="s">
-        <v>33</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>7</v>
@@ -677,7 +692,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -685,18 +700,22 @@
         <v>3</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="3" t="s">
-        <v>33</v>
       </c>
       <c r="I5" s="3" t="s">
         <v>7</v>
@@ -719,7 +738,7 @@
       </c>
       <c r="Q5" s="1"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -727,18 +746,22 @@
         <v>4</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H6" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="3" t="s">
-        <v>33</v>
       </c>
       <c r="I6" s="3" t="s">
         <v>7</v>
@@ -760,7 +783,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -768,18 +791,22 @@
         <v>5</v>
       </c>
       <c r="C7" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="3" t="s">
-        <v>33</v>
       </c>
       <c r="I7" s="3" t="s">
         <v>7</v>
@@ -801,7 +828,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -809,18 +836,22 @@
         <v>6</v>
       </c>
       <c r="C8" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H8" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="3" t="s">
-        <v>33</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>7</v>
@@ -850,7 +881,7 @@
         <v>0</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>7</v>
@@ -859,7 +890,9 @@
         <v>24</v>
       </c>
       <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
+      <c r="G9" s="4" t="s">
+        <v>33</v>
+      </c>
       <c r="H9" s="3" t="s">
         <v>20</v>
       </c>
@@ -870,7 +903,7 @@
         <v>32</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="L9" s="1" t="s">
         <v>28</v>
@@ -893,7 +926,7 @@
         <v>1</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>7</v>
@@ -902,7 +935,9 @@
         <v>24</v>
       </c>
       <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
+      <c r="G10" s="4" t="s">
+        <v>33</v>
+      </c>
       <c r="H10" s="3" t="s">
         <v>20</v>
       </c>
@@ -913,7 +948,7 @@
         <v>32</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="L10" s="1" t="s">
         <v>28</v>
@@ -925,7 +960,7 @@
         <v>28</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="16" x14ac:dyDescent="0.2">
@@ -936,7 +971,7 @@
         <v>2</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>7</v>
@@ -945,7 +980,9 @@
         <v>24</v>
       </c>
       <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
+      <c r="G11" s="4" t="s">
+        <v>33</v>
+      </c>
       <c r="H11" s="3" t="s">
         <v>20</v>
       </c>
@@ -956,7 +993,7 @@
         <v>32</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="L11" s="1" t="s">
         <v>28</v>
@@ -968,7 +1005,7 @@
         <v>28</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="16" x14ac:dyDescent="0.2">
@@ -979,7 +1016,7 @@
         <v>3</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>7</v>
@@ -988,7 +1025,9 @@
         <v>24</v>
       </c>
       <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
+      <c r="G12" s="4" t="s">
+        <v>33</v>
+      </c>
       <c r="H12" s="3" t="s">
         <v>20</v>
       </c>
@@ -999,7 +1038,7 @@
         <v>32</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="L12" s="1" t="s">
         <v>28</v>
@@ -1011,7 +1050,7 @@
         <v>28</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="16" x14ac:dyDescent="0.2">
@@ -1022,7 +1061,7 @@
         <v>4</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>7</v>
@@ -1031,7 +1070,9 @@
         <v>24</v>
       </c>
       <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
+      <c r="G13" s="4" t="s">
+        <v>33</v>
+      </c>
       <c r="H13" s="3" t="s">
         <v>20</v>
       </c>
@@ -1042,7 +1083,7 @@
         <v>32</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="L13" s="1" t="s">
         <v>28</v>
@@ -1054,7 +1095,7 @@
         <v>28</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="16" x14ac:dyDescent="0.2">
@@ -1065,7 +1106,7 @@
         <v>5</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>7</v>
@@ -1074,7 +1115,9 @@
         <v>24</v>
       </c>
       <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
+      <c r="G14" s="4" t="s">
+        <v>33</v>
+      </c>
       <c r="H14" s="3" t="s">
         <v>20</v>
       </c>
@@ -1085,7 +1128,7 @@
         <v>32</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="L14" s="1" t="s">
         <v>28</v>
@@ -1097,7 +1140,7 @@
         <v>28</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Config/Master_Test_Template.xlsx
+++ b/Config/Master_Test_Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harish/PycharmProjects/Data_Automation_project/Config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54E7EDF4-0446-FA46-88A7-E33D2E305D3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73E300CA-6F9C-CE41-96F8-CCB56E7C0174}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="37">
   <si>
     <t>count_validation</t>
   </si>
@@ -128,6 +128,9 @@
   </si>
   <si>
     <t>contact_info_s.sql</t>
+  </si>
+  <si>
+    <t>N</t>
   </si>
 </sst>
 </file>
@@ -483,8 +486,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -915,7 +918,7 @@
         <v>28</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="16" x14ac:dyDescent="0.2">
@@ -960,7 +963,7 @@
         <v>28</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="16" x14ac:dyDescent="0.2">
@@ -1005,7 +1008,7 @@
         <v>28</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="16" x14ac:dyDescent="0.2">
@@ -1050,7 +1053,7 @@
         <v>28</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="16" x14ac:dyDescent="0.2">
@@ -1095,7 +1098,7 @@
         <v>28</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="16" x14ac:dyDescent="0.2">
@@ -1140,7 +1143,7 @@
         <v>28</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/Config/Master_Test_Template.xlsx
+++ b/Config/Master_Test_Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harish/PycharmProjects/Data_Automation_project/Config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73E300CA-6F9C-CE41-96F8-CCB56E7C0174}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{794B4DF0-BE85-6E4E-97B9-12E83CC03936}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="41">
   <si>
     <t>count_validation</t>
   </si>
@@ -131,6 +131,18 @@
   </si>
   <si>
     <t>N</t>
+  </si>
+  <si>
+    <t>contact_info_raw</t>
+  </si>
+  <si>
+    <t>contact_info_bronze</t>
+  </si>
+  <si>
+    <t>oracle_db</t>
+  </si>
+  <si>
+    <t>IDENTIFIER</t>
   </si>
 </sst>
 </file>
@@ -484,10 +496,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q14"/>
+  <dimension ref="A1:Q17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="Q10" sqref="Q10"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -593,7 +605,7 @@
       </c>
       <c r="K2" s="4"/>
       <c r="L2" s="1" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="M2" s="8" t="s">
         <v>27</v>
@@ -602,7 +614,7 @@
         <v>28</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="16" x14ac:dyDescent="0.2">
@@ -638,7 +650,7 @@
       </c>
       <c r="K3" s="4"/>
       <c r="L3" s="1" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="M3" s="8" t="s">
         <v>27</v>
@@ -647,7 +659,7 @@
         <v>28</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="16" x14ac:dyDescent="0.2">
@@ -683,7 +695,7 @@
       </c>
       <c r="K4" s="4"/>
       <c r="L4" s="1" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="M4" s="8" t="s">
         <v>27</v>
@@ -692,7 +704,7 @@
         <v>28</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="16" x14ac:dyDescent="0.2">
@@ -728,7 +740,7 @@
       </c>
       <c r="K5" s="4"/>
       <c r="L5" s="1" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="M5" s="8" t="s">
         <v>27</v>
@@ -737,7 +749,7 @@
         <v>28</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="Q5" s="1"/>
     </row>
@@ -774,7 +786,7 @@
       </c>
       <c r="K6" s="4"/>
       <c r="L6" s="1" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="M6" s="8" t="s">
         <v>27</v>
@@ -783,7 +795,7 @@
         <v>28</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="16" x14ac:dyDescent="0.2">
@@ -819,7 +831,7 @@
       </c>
       <c r="K7" s="4"/>
       <c r="L7" s="1" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="M7" s="8" t="s">
         <v>27</v>
@@ -828,7 +840,7 @@
         <v>28</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="16" x14ac:dyDescent="0.2">
@@ -864,7 +876,7 @@
       </c>
       <c r="K8" s="4"/>
       <c r="L8" s="1" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="M8" s="8" t="s">
         <v>27</v>
@@ -873,7 +885,7 @@
         <v>28</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="16" x14ac:dyDescent="0.2">
@@ -909,7 +921,7 @@
         <v>34</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="M9" s="8" t="s">
         <v>27</v>
@@ -954,7 +966,7 @@
         <v>34</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="M10" s="8" t="s">
         <v>27</v>
@@ -999,7 +1011,7 @@
         <v>34</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="M11" s="8" t="s">
         <v>27</v>
@@ -1044,7 +1056,7 @@
         <v>34</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="M12" s="8" t="s">
         <v>27</v>
@@ -1089,7 +1101,7 @@
         <v>34</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="M13" s="8" t="s">
         <v>27</v>
@@ -1134,7 +1146,7 @@
         <v>34</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="M14" s="8" t="s">
         <v>27</v>
@@ -1144,6 +1156,141 @@
       </c>
       <c r="P14" s="1" t="s">
         <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G15" s="4"/>
+      <c r="H15" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M15" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="N15" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G16" s="4"/>
+      <c r="H16" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K16" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M16" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="N16" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="A17" s="2">
+        <v>15</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G17" s="4"/>
+      <c r="H17" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K17" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M17" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="N17" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Config/Master_Test_Template.xlsx
+++ b/Config/Master_Test_Template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harish/PycharmProjects/Data_Automation_project/Config/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vijay\PycharmProjects\Data_Automation_project2\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{794B4DF0-BE85-6E4E-97B9-12E83CC03936}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B7568A2-C4FF-4FDB-A6E5-ECFA023ACCAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="41">
   <si>
     <t>count_validation</t>
   </si>
@@ -149,7 +149,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -496,33 +496,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q17"/>
+  <dimension ref="A1:Q18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="23.33203125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="58.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.36328125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="58.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.1796875" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14" style="2" customWidth="1"/>
-    <col min="6" max="6" width="29.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="29.83203125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="69.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="23.83203125" style="2" customWidth="1"/>
-    <col min="11" max="11" width="49.1640625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="29.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.81640625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="69.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="23.81640625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="49.1796875" style="2" customWidth="1"/>
     <col min="12" max="12" width="16" style="2" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="22" style="2" customWidth="1"/>
-    <col min="14" max="14" width="18.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.453125" style="2" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="15" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="8.6640625" style="2"/>
+    <col min="16" max="16" width="12.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="8.6328125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -572,7 +572,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -617,7 +617,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -662,7 +662,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -707,7 +707,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -753,7 +753,7 @@
       </c>
       <c r="Q5" s="1"/>
     </row>
-    <row r="6" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -798,7 +798,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -843,7 +843,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -888,7 +888,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -933,7 +933,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -978,7 +978,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -1023,7 +1023,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -1068,7 +1068,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -1113,7 +1113,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -1158,7 +1158,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -1203,7 +1203,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -1248,7 +1248,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16">
       <c r="A17" s="2">
         <v>15</v>
       </c>
@@ -1290,6 +1290,51 @@
         <v>28</v>
       </c>
       <c r="P17" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="A18" s="2">
+        <v>16</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G18" s="4"/>
+      <c r="H18" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K18" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M18" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="N18" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="P18" s="1" t="s">
         <v>9</v>
       </c>
     </row>

--- a/Config/Master_Test_Template.xlsx
+++ b/Config/Master_Test_Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harish/PycharmProjects/Data_Automation_project/Config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{794B4DF0-BE85-6E4E-97B9-12E83CC03936}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FD8E65B-FFAC-2144-A741-F194461A9E5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,19 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="41">
-  <si>
-    <t>count_validation</t>
-  </si>
-  <si>
-    <t>duplicate</t>
-  </si>
-  <si>
-    <t>Null_value_check</t>
-  </si>
-  <si>
-    <t>Uniquess_check</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="40">
   <si>
     <t>records_present_only_in_source</t>
   </si>
@@ -130,9 +118,6 @@
     <t>contact_info_s.sql</t>
   </si>
   <si>
-    <t>N</t>
-  </si>
-  <si>
     <t>contact_info_raw</t>
   </si>
   <si>
@@ -143,6 +128,18 @@
   </si>
   <si>
     <t>IDENTIFIER</t>
+  </si>
+  <si>
+    <t>count_check</t>
+  </si>
+  <si>
+    <t>duplicate_check</t>
+  </si>
+  <si>
+    <t>uniqueness_check</t>
+  </si>
+  <si>
+    <t>null_value_check</t>
   </si>
 </sst>
 </file>
@@ -193,7 +190,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -210,9 +207,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
@@ -498,8 +492,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -524,52 +518,52 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="I1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="O1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="16" x14ac:dyDescent="0.2">
@@ -577,44 +571,46 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K2" s="4"/>
+        <v>20</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>20</v>
+      </c>
       <c r="L2" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="M2" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="N2" s="7" t="s">
-        <v>28</v>
+        <v>35</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>36</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="16" x14ac:dyDescent="0.2">
@@ -622,44 +618,46 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K3" s="4"/>
+        <v>20</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>20</v>
+      </c>
       <c r="L3" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="M3" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="N3" s="7" t="s">
-        <v>28</v>
+        <v>35</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>36</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="16" x14ac:dyDescent="0.2">
@@ -667,89 +665,93 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K4" s="4"/>
+        <v>20</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>20</v>
+      </c>
       <c r="L4" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="M4" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="N4" s="7" t="s">
-        <v>28</v>
+        <v>35</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="N4" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>36</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>3</v>
+      <c r="B5" s="5" t="s">
+        <v>39</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K5" s="4"/>
+        <v>20</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>20</v>
+      </c>
       <c r="L5" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="M5" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="N5" s="7" t="s">
-        <v>28</v>
+        <v>35</v>
+      </c>
+      <c r="M5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="N5" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="Q5" s="1"/>
     </row>
@@ -757,135 +759,141 @@
       <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>4</v>
+      <c r="B6" s="5" t="s">
+        <v>0</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K6" s="4"/>
+        <v>20</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>20</v>
+      </c>
       <c r="L6" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="M6" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="N6" s="7" t="s">
-        <v>28</v>
+        <v>35</v>
+      </c>
+      <c r="M6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="N6" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>36</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>5</v>
+      <c r="B7" s="5" t="s">
+        <v>1</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K7" s="4"/>
+        <v>20</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>20</v>
+      </c>
       <c r="L7" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="M7" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="N7" s="7" t="s">
-        <v>28</v>
+        <v>35</v>
+      </c>
+      <c r="M7" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="N7" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>36</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>6</v>
+      <c r="B8" s="5" t="s">
+        <v>2</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K8" s="4"/>
+        <v>20</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>20</v>
+      </c>
       <c r="L8" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="M8" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="N8" s="7" t="s">
-        <v>28</v>
+        <v>35</v>
+      </c>
+      <c r="M8" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>36</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="16" x14ac:dyDescent="0.2">
@@ -893,44 +901,46 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="C9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K9" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="K9" s="4" t="s">
-        <v>34</v>
-      </c>
       <c r="L9" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="M9" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="N9" s="7" t="s">
-        <v>28</v>
+        <v>35</v>
+      </c>
+      <c r="M9" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="N9" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>36</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="16" x14ac:dyDescent="0.2">
@@ -938,44 +948,46 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="C10" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K10" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="K10" s="4" t="s">
-        <v>34</v>
-      </c>
       <c r="L10" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="M10" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="N10" s="7" t="s">
-        <v>28</v>
+        <v>35</v>
+      </c>
+      <c r="M10" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="N10" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>36</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="16" x14ac:dyDescent="0.2">
@@ -983,179 +995,187 @@
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="C11" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K11" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="K11" s="4" t="s">
-        <v>34</v>
-      </c>
       <c r="L11" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="M11" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="N11" s="7" t="s">
-        <v>28</v>
+        <v>35</v>
+      </c>
+      <c r="M11" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="N11" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>36</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>11</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>3</v>
+      <c r="B12" s="5" t="s">
+        <v>39</v>
       </c>
       <c r="C12" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K12" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="K12" s="4" t="s">
-        <v>34</v>
-      </c>
       <c r="L12" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="M12" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="N12" s="7" t="s">
-        <v>28</v>
+        <v>35</v>
+      </c>
+      <c r="M12" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="N12" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>36</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>12</v>
       </c>
-      <c r="B13" s="6" t="s">
-        <v>4</v>
+      <c r="B13" s="5" t="s">
+        <v>0</v>
       </c>
       <c r="C13" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K13" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="K13" s="4" t="s">
-        <v>34</v>
-      </c>
       <c r="L13" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="M13" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="N13" s="7" t="s">
-        <v>28</v>
+        <v>35</v>
+      </c>
+      <c r="M13" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="N13" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>36</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>13</v>
       </c>
-      <c r="B14" s="6" t="s">
-        <v>5</v>
+      <c r="B14" s="5" t="s">
+        <v>1</v>
       </c>
       <c r="C14" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K14" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="K14" s="4" t="s">
-        <v>34</v>
-      </c>
       <c r="L14" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="M14" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="N14" s="7" t="s">
-        <v>28</v>
+        <v>35</v>
+      </c>
+      <c r="M14" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="N14" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>36</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:17" ht="16" x14ac:dyDescent="0.2">
@@ -1163,44 +1183,46 @@
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="G15" s="4"/>
+        <v>31</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>20</v>
+      </c>
       <c r="H15" s="3" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="M15" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="N15" s="7" t="s">
-        <v>28</v>
+        <v>35</v>
+      </c>
+      <c r="M15" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="N15" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:17" ht="16" x14ac:dyDescent="0.2">
@@ -1208,44 +1230,46 @@
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="G16" s="4"/>
+        <v>31</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>20</v>
+      </c>
       <c r="H16" s="3" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="M16" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="N16" s="7" t="s">
-        <v>28</v>
+        <v>35</v>
+      </c>
+      <c r="M16" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="N16" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:16" ht="16" x14ac:dyDescent="0.2">
@@ -1253,50 +1277,58 @@
         <v>15</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="G17" s="4"/>
+        <v>31</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>20</v>
+      </c>
       <c r="H17" s="3" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="K17" s="4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="M17" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="N17" s="7" t="s">
-        <v>28</v>
+        <v>35</v>
+      </c>
+      <c r="M17" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="N17" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B1048576" xr:uid="{703DDE81-D9C0-DC4D-BC27-344A03B57562}">
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1 B18:B1048576" xr:uid="{703DDE81-D9C0-DC4D-BC27-344A03B57562}">
       <formula1>"count_validation,duplicate,Null_value_check,Uniqueness_check,records_present_only_in_source,records_present_only_target,data_compare"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2 B9 B16" xr:uid="{DC67314B-1334-534F-A26D-DF52A2A8DEF6}">
+      <formula1>"count_check,duplicate_check,null_value_check,uniqueness_check,records_present_only_in_source,records_present_only_target,data_compare"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B8 B10:B15 B17" xr:uid="{74169A69-E248-3047-9A8E-76611A2C8774}">
+      <formula1>"duplicate_check, uniqueness_check, null_value_check, records_present_only_in_target,  records_present_only_in_source,  data_compare,name_std_check, postal_code_std_check  "</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Config/Master_Test_Template.xlsx
+++ b/Config/Master_Test_Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harish/PycharmProjects/Data_Automation_project/Config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FD8E65B-FFAC-2144-A741-F194461A9E5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E24D5B15-8746-C04E-93FD-86A2E8E09DE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="56">
   <si>
     <t>records_present_only_in_source</t>
   </si>
@@ -140,13 +140,61 @@
   </si>
   <si>
     <t>null_value_check</t>
+  </si>
+  <si>
+    <t>CIFR_1</t>
+  </si>
+  <si>
+    <t>CIFR_2</t>
+  </si>
+  <si>
+    <t>CIFR_3</t>
+  </si>
+  <si>
+    <t>CIFR_4</t>
+  </si>
+  <si>
+    <t>CIFR_5</t>
+  </si>
+  <si>
+    <t>CIFR_6</t>
+  </si>
+  <si>
+    <t>CIFF_1</t>
+  </si>
+  <si>
+    <t>CIFF_2</t>
+  </si>
+  <si>
+    <t>CIFF_3</t>
+  </si>
+  <si>
+    <t>CIFF_4</t>
+  </si>
+  <si>
+    <t>CIFF_5</t>
+  </si>
+  <si>
+    <t>CIFF_6</t>
+  </si>
+  <si>
+    <t>CIFF_7</t>
+  </si>
+  <si>
+    <t>CIDD_1</t>
+  </si>
+  <si>
+    <t>CIDD_2</t>
+  </si>
+  <si>
+    <t>CIDD_3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -163,6 +211,12 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -492,8 +546,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -567,8 +621,8 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="2">
-        <v>1</v>
+      <c r="A2" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>36</v>
@@ -614,8 +668,8 @@
       </c>
     </row>
     <row r="3" spans="1:17" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="2">
-        <v>2</v>
+      <c r="A3" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>37</v>
@@ -661,8 +715,8 @@
       </c>
     </row>
     <row r="4" spans="1:17" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
-        <v>3</v>
+      <c r="A4" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>38</v>
@@ -708,8 +762,8 @@
       </c>
     </row>
     <row r="5" spans="1:17" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="2">
-        <v>4</v>
+      <c r="A5" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>39</v>
@@ -756,8 +810,8 @@
       <c r="Q5" s="1"/>
     </row>
     <row r="6" spans="1:17" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="2">
-        <v>5</v>
+      <c r="A6" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>0</v>
@@ -803,8 +857,8 @@
       </c>
     </row>
     <row r="7" spans="1:17" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" s="2">
-        <v>6</v>
+      <c r="A7" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>1</v>
@@ -850,8 +904,8 @@
       </c>
     </row>
     <row r="8" spans="1:17" ht="16" x14ac:dyDescent="0.2">
-      <c r="A8" s="2">
-        <v>7</v>
+      <c r="A8" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>2</v>
@@ -897,8 +951,8 @@
       </c>
     </row>
     <row r="9" spans="1:17" ht="16" x14ac:dyDescent="0.2">
-      <c r="A9" s="2">
-        <v>8</v>
+      <c r="A9" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>36</v>
@@ -944,8 +998,8 @@
       </c>
     </row>
     <row r="10" spans="1:17" ht="16" x14ac:dyDescent="0.2">
-      <c r="A10" s="2">
-        <v>9</v>
+      <c r="A10" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>37</v>
@@ -991,8 +1045,8 @@
       </c>
     </row>
     <row r="11" spans="1:17" ht="16" x14ac:dyDescent="0.2">
-      <c r="A11" s="2">
-        <v>10</v>
+      <c r="A11" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>38</v>
@@ -1038,8 +1092,8 @@
       </c>
     </row>
     <row r="12" spans="1:17" ht="16" x14ac:dyDescent="0.2">
-      <c r="A12" s="2">
-        <v>11</v>
+      <c r="A12" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>39</v>
@@ -1085,8 +1139,8 @@
       </c>
     </row>
     <row r="13" spans="1:17" ht="16" x14ac:dyDescent="0.2">
-      <c r="A13" s="2">
-        <v>12</v>
+      <c r="A13" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>0</v>
@@ -1132,8 +1186,8 @@
       </c>
     </row>
     <row r="14" spans="1:17" ht="16" x14ac:dyDescent="0.2">
-      <c r="A14" s="2">
-        <v>13</v>
+      <c r="A14" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>1</v>
@@ -1179,8 +1233,8 @@
       </c>
     </row>
     <row r="15" spans="1:17" ht="16" x14ac:dyDescent="0.2">
-      <c r="A15" s="2">
-        <v>14</v>
+      <c r="A15" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>2</v>
@@ -1226,8 +1280,8 @@
       </c>
     </row>
     <row r="16" spans="1:17" ht="16" x14ac:dyDescent="0.2">
-      <c r="A16" s="2">
-        <v>15</v>
+      <c r="A16" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>36</v>
@@ -1273,8 +1327,8 @@
       </c>
     </row>
     <row r="17" spans="1:16" ht="16" x14ac:dyDescent="0.2">
-      <c r="A17" s="2">
-        <v>15</v>
+      <c r="A17" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>37</v>
@@ -1320,7 +1374,8 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="3">
+  <phoneticPr fontId="3" type="noConversion"/>
+  <dataValidations count="5">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1 B18:B1048576" xr:uid="{703DDE81-D9C0-DC4D-BC27-344A03B57562}">
       <formula1>"count_validation,duplicate,Null_value_check,Uniqueness_check,records_present_only_in_source,records_present_only_target,data_compare"</formula1>
     </dataValidation>
@@ -1330,6 +1385,12 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B8 B10:B15 B17" xr:uid="{74169A69-E248-3047-9A8E-76611A2C8774}">
       <formula1>"duplicate_check, uniqueness_check, null_value_check, records_present_only_in_target,  records_present_only_in_source,  data_compare,name_std_check, postal_code_std_check  "</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P17" xr:uid="{53648117-6315-BD4B-95C3-AF9A5887C458}">
+      <formula1>"Y,N"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576 I1:I1048576" xr:uid="{39CDAD1A-527D-8A43-BFCC-4279C43AB355}">
+      <formula1>"csv,json,parquet,avro,table"</formula1>
+    </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
